--- a/parts/data.xlsx
+++ b/parts/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mashi/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mashi/Dropbox/00_works/git/portfolio/attendance_and_absence/parts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F36FDA62-3349-1145-8E93-7BA3024210F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5B72C4-DE2A-3D4F-A007-1506FD6E2595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="100" yWindow="1500" windowWidth="30080" windowHeight="18780" xr2:uid="{D462A9D9-4C61-DB4A-8415-621BDE77314E}"/>
   </bookViews>
@@ -479,7 +479,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>45272</v>
+        <v>45547</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -552,7 +552,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1">
-        <v>45687</v>
+        <v>45272</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -563,7 +563,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>45272</v>
+        <v>45577</v>
       </c>
     </row>
   </sheetData>
